--- a/gold_standard.xlsx
+++ b/gold_standard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omar_\source\repos\ExtortionREVIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57690CAA-7C5C-4984-9632-715E36A226A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0E789-1B35-4EA5-9A6E-5DF9051D3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2D75EF-69F3-4CF7-B7DE-0CFCFAF9B9E9}">
   <dimension ref="A1:C987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A838" workbookViewId="0">
+      <selection activeCell="D783" sqref="D783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11127,7 +11127,7 @@
         <v>562</v>
       </c>
       <c r="B754" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C754" t="s">
         <v>795</v>
